--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail11 Features.xlsx
@@ -3745,7 +3745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3756,29 +3756,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3799,115 +3797,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3924,72 +3912,66 @@
         <v>4.291709189954239e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7191457906812178</v>
+        <v>1.528190449065753e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.4296128170916331</v>
+        <v>1.348229653683177e-05</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.528190449065753e-06</v>
+        <v>0.001168204071226377</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.348229653683177e-05</v>
+        <v>0.2119470321874895</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.001168204071226377</v>
+        <v>0.04488739359160235</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2119470321874895</v>
+        <v>1.468133298312018</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04488739359160235</v>
+        <v>1.571113682923472</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.373048095892502</v>
+        <v>3.701077650832037</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.571113682923472</v>
+        <v>1.350348502676082e-13</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.701077650832037</v>
+        <v>7006327.716643015</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.350348502676082e-13</v>
+        <v>1.480957189475657e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>7006327.716643015</v>
+        <v>6.628675541679879</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.480957189475657e-05</v>
+        <v>9.867100365516155e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.628675541679879</v>
+        <v>7.0329402913681</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>9.867100365516155e-05</v>
+        <v>1.967218791425598</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.0329402913681</v>
+        <v>0.004880489765877743</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.967218791425598</v>
+        <v>3.407789836076663</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.004880489765877743</v>
+        <v>0.9332301250633498</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.407789836076663</v>
+        <v>1.88405550459744</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9332301250633498</v>
+        <v>13</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.88405550459744</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2372096692629286</v>
       </c>
     </row>
@@ -4004,72 +3986,66 @@
         <v>4.267116566520225e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.7190622542777011</v>
+        <v>1.528190449065753e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.4077063972341901</v>
+        <v>1.34858959571522e-05</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.528190449065753e-06</v>
+        <v>0.01491836033470781</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.34858959571522e-05</v>
+        <v>0.2040668589511313</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01491836033470781</v>
+        <v>0.04185078006645773</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2040668589511313</v>
+        <v>1.455629674411431</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04185078006645773</v>
+        <v>1.458055192981686</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.364474492419822</v>
+        <v>3.818338113007941</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.458055192981686</v>
+        <v>1.12141166035853e-13</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.818338113007941</v>
+        <v>8235844.71512541</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.12141166035853e-13</v>
+        <v>1.255637485053972e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>8235844.71512541</v>
+        <v>7.606438645776846</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.255637485053972e-05</v>
+        <v>0.0001057171465095205</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>7.606438645776846</v>
+        <v>7.479095499680489</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001057171465095205</v>
+        <v>1.225270619544003</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.479095499680489</v>
+        <v>0.005913486227511451</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.225270619544003</v>
+        <v>3.163444274176389</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.005913486227511451</v>
+        <v>0.9313968145577806</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.163444274176389</v>
+        <v>1.901546852322943</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9313968145577806</v>
+        <v>13</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.901546852322943</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2251292932831566</v>
       </c>
     </row>
@@ -4084,72 +4060,66 @@
         <v>4.207085263487979e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.728319587156908</v>
+        <v>1.528190449065753e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.3666932650173429</v>
+        <v>1.34942616291245e-05</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.528190449065753e-06</v>
+        <v>0.0235645930380266</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.34942616291245e-05</v>
+        <v>0.2078878970241273</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0235645930380266</v>
+        <v>0.04376802322682428</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2078878970241273</v>
+        <v>1.469246264164755</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04376802322682428</v>
+        <v>1.670806067228124</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.374539842417268</v>
+        <v>3.668910787193281</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.670806067228124</v>
+        <v>1.070349545902794e-13</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.668910787193281</v>
+        <v>8486214.667019663</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.070349545902794e-13</v>
+        <v>1.230937989573381e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>8486214.667019663</v>
+        <v>7.70821209725611</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.230937989573381e-05</v>
+        <v>0.0001185735666574502</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>7.70821209725611</v>
+        <v>8.653931219709236</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001185735666574502</v>
+        <v>1.263202749885903</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.653931219709236</v>
+        <v>0.008880036723961596</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.263202749885903</v>
+        <v>3.081404650032752</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008880036723961596</v>
+        <v>0.9375608116456444</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.081404650032752</v>
+        <v>1.880338451778172</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9375608116456444</v>
+        <v>15</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.880338451778172</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2106759752810657</v>
       </c>
     </row>
@@ -4164,72 +4134,66 @@
         <v>4.140455091350674e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7330763661436109</v>
+        <v>1.514392833611707e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.3330135754269405</v>
+        <v>1.350469907780295e-05</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.514392833611707e-06</v>
+        <v>0.02530647871108854</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.350469907780295e-05</v>
+        <v>0.2119048883694085</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02530647871108854</v>
+        <v>0.04553783176350911</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2119048883694085</v>
+        <v>1.512024818219467</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04553783176350911</v>
+        <v>1.618143132079025</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.414490299592711</v>
+        <v>3.403182623419422</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.618143132079025</v>
+        <v>1.244025900099451e-13</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.403182623419422</v>
+        <v>7080680.376214188</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.244025900099451e-13</v>
+        <v>1.513080657634095e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>7080680.376214188</v>
+        <v>6.237052555837219</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.513080657634095e-05</v>
+        <v>0.0001544614720192294</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>6.237052555837219</v>
+        <v>9.294938911154018</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001544614720192294</v>
+        <v>1.452378630645411</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.294938911154018</v>
+        <v>0.01334483624727814</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.452378630645411</v>
+        <v>3.035931058578055</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01334483624727814</v>
+        <v>0.9405540768114267</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.035931058578055</v>
+        <v>1.8600059082712</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9405540768114267</v>
+        <v>14</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.8600059082712</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1764588035562153</v>
       </c>
     </row>
@@ -4244,72 +4208,66 @@
         <v>4.094835100819276e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.7136944742101162</v>
+        <v>1.514392833611707e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.3166927725745547</v>
+        <v>1.351449482764583e-05</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.514392833611707e-06</v>
+        <v>0.02183362529824365</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.351449482764583e-05</v>
+        <v>0.2103383002556238</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02183362529824365</v>
+        <v>0.04470650018658068</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2103383002556238</v>
+        <v>1.507971911276277</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04470650018658068</v>
+        <v>1.488606222600789</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.406693819982531</v>
+        <v>3.491943793447644</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.488606222600789</v>
+        <v>1.098929929556458e-13</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.491943793447644</v>
+        <v>7974723.322916272</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.098929929556458e-13</v>
+        <v>1.353197491114248e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>7974723.322916272</v>
+        <v>6.988778085790631</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.353197491114248e-05</v>
+        <v>0.0001724878960969162</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>6.988778085790631</v>
+        <v>9.667519181454255</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001724878960969162</v>
+        <v>1.417904681257727</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.667519181454255</v>
+        <v>0.01612087868684904</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.417904681257727</v>
+        <v>2.919486303105078</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01612087868684904</v>
+        <v>0.9395155953232722</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.919486303105078</v>
+        <v>1.856348901843344</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9395155953232722</v>
+        <v>15</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.856348901843344</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1585229138316481</v>
       </c>
     </row>
@@ -4324,72 +4282,66 @@
         <v>4.076990840864327e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.6749816454808992</v>
+        <v>1.514392833611707e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.3308845166192338</v>
+        <v>1.352233741699162e-05</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.514392833611707e-06</v>
+        <v>0.01623139724472174</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.352233741699162e-05</v>
+        <v>0.2041773590211983</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01623139724472174</v>
+        <v>0.04193768362719038</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2041773590211983</v>
+        <v>1.491017347174075</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04193768362719038</v>
+        <v>1.516195386564424</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.394570419482811</v>
+        <v>4.292023622224967</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.516195386564424</v>
+        <v>1.235600038071449e-13</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.292023622224967</v>
+        <v>7410205.880922553</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.235600038071449e-13</v>
+        <v>1.417151637134606e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>7410205.880922553</v>
+        <v>6.78482205103748</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.417151637134606e-05</v>
+        <v>0.0001624704201674055</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>6.78482205103748</v>
+        <v>9.755450562196627</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001624704201674055</v>
+        <v>1.273468768219425</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.755450562196627</v>
+        <v>0.01546211746897687</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.273468768219425</v>
+        <v>2.864889412995026</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01546211746897687</v>
+        <v>0.9385918039777106</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.864889412995026</v>
+        <v>1.854333379268993</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9385918039777106</v>
+        <v>15</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.854333379268993</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1543959355224547</v>
       </c>
     </row>
@@ -4404,72 +4356,66 @@
         <v>4.076677541621678e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.6407463075939241</v>
+        <v>1.514392833611707e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.3620999379329946</v>
+        <v>1.352725921857388e-05</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.514392833611707e-06</v>
+        <v>0.007443567675166609</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.352725921857388e-05</v>
+        <v>0.1968675834079932</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.007443567675166609</v>
+        <v>0.03879872292067028</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1968675834079932</v>
+        <v>1.512115676313038</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03879872292067028</v>
+        <v>1.431391855782812</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.413618410547726</v>
+        <v>3.895138166704423</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.431391855782812</v>
+        <v>1.797983598873591e-13</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.895138166704423</v>
+        <v>5269243.388552454</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.797983598873591e-13</v>
+        <v>2.022303466156392e-05</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>5269243.388552454</v>
+        <v>4.992088137021193</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.022303466156392e-05</v>
+        <v>0.0001508796835621604</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>4.992088137021193</v>
+        <v>10.29399953143721</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001508796835621604</v>
+        <v>1.108911828609755</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.29399953143721</v>
+        <v>0.01598818087638825</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.108911828609755</v>
+        <v>2.752202048147276</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01598818087638825</v>
+        <v>0.9383085257755679</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.752202048147276</v>
+        <v>1.910263613206876</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9383085257755679</v>
+        <v>15</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.910263613206876</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1643897813642228</v>
       </c>
     </row>
@@ -4484,72 +4430,66 @@
         <v>4.077398272235642e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6344801916522167</v>
+        <v>1.514392833611707e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.3690695903969687</v>
+        <v>1.352807688643879e-05</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.514392833611707e-06</v>
+        <v>-0.003750643001012333</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.352807688643879e-05</v>
+        <v>0.1942887549669519</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.003750643001012333</v>
+        <v>0.03774461529177245</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1942887549669519</v>
+        <v>1.517299513607569</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03774461529177245</v>
+        <v>1.593109626404439</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.417601107418952</v>
+        <v>3.709020601933348</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.593109626404439</v>
+        <v>1.982955504991843e-13</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.709020601933348</v>
+        <v>4827196.567534411</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.982955504991843e-13</v>
+        <v>2.214405483177954e-05</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>4827196.567534411</v>
+        <v>4.620648553433538</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.214405483177954e-05</v>
+        <v>0.0001299964541247866</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>4.620648553433538</v>
+        <v>10.34126409942482</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001299964541247866</v>
+        <v>1.098695824058379</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.34126409942482</v>
+        <v>0.01390204741055043</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.098695824058379</v>
+        <v>2.927929433152947</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01390204741055043</v>
+        <v>0.9391499121917873</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.927929433152947</v>
+        <v>1.868570540441189</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9391499121917873</v>
+        <v>12</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.868570540441189</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1789639268061807</v>
       </c>
     </row>
@@ -4564,72 +4504,66 @@
         <v>4.071500362702961e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.6660148151654007</v>
+        <v>1.514392833611707e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.3280028240502246</v>
+        <v>1.35239073597122e-05</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.514392833611707e-06</v>
+        <v>-0.01691683295470115</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.35239073597122e-05</v>
+        <v>0.1922929064956078</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.01691683295470115</v>
+        <v>0.03724175146665333</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1922929064956078</v>
+        <v>1.488619800792699</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03724175146665333</v>
+        <v>1.579565737088337</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.386613991695448</v>
+        <v>3.702287813561025</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.579565737088337</v>
+        <v>1.990174262686305e-13</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.702287813561025</v>
+        <v>4664500.055137454</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.990174262686305e-13</v>
+        <v>2.230816258131955e-05</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>4664500.055137454</v>
+        <v>4.330133745209708</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.230816258131955e-05</v>
+        <v>0.0001273170583742753</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>4.330133745209708</v>
+        <v>9.801816760201215</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001273170583742753</v>
+        <v>1.534572734174062</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.801816760201215</v>
+        <v>0.0122320642759563</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.534572734174062</v>
+        <v>3.243684995074033</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0122320642759563</v>
+        <v>0.9369990137486834</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.243684995074033</v>
+        <v>1.887379142635465</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9369990137486834</v>
+        <v>13</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.887379142635465</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1839421777409142</v>
       </c>
     </row>
@@ -4644,72 +4578,66 @@
         <v>4.054004908094526e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.7305321729170932</v>
+        <v>1.514392833611707e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.2254555000475795</v>
+        <v>1.351438490594927e-05</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.514392833611707e-06</v>
+        <v>-0.02977123706656764</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.351438490594927e-05</v>
+        <v>0.1896520303510927</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.02977123706656764</v>
+        <v>0.03683636025320293</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1896520303510927</v>
+        <v>1.489370027870863</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03683636025320293</v>
+        <v>1.511727539947763</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.388149702127264</v>
+        <v>3.659474161437058</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.511727539947763</v>
+        <v>2.037014359369202e-13</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.659474161437058</v>
+        <v>4539803.687476787</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.037014359369202e-13</v>
+        <v>2.286999136597502e-05</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>4539803.687476787</v>
+        <v>4.198249423390526</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.286999136597502e-05</v>
+        <v>0.0001260857062224948</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>4.198249423390526</v>
+        <v>8.164217600389124</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001260857062224948</v>
+        <v>1.824700475342222</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.164217600389124</v>
+        <v>0.00840417327837798</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.824700475342222</v>
+        <v>3.309247650626569</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.00840417327837798</v>
+        <v>0.9365768175612373</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.309247650626569</v>
+        <v>1.896620678452773</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9365768175612373</v>
+        <v>12</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.896620678452773</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.184241406312508</v>
       </c>
     </row>
@@ -4724,72 +4652,66 @@
         <v>4.01562703467482e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.8096522927202798</v>
+        <v>1.514392833611707e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.05482942681143443</v>
+        <v>1.349981073206208e-05</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.514392833611707e-06</v>
+        <v>-0.04245004584349429</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.349981073206208e-05</v>
+        <v>0.184095938870802</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04245004584349429</v>
+        <v>0.03567576943316476</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.184095938870802</v>
+        <v>1.513110123250777</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03567576943316476</v>
+        <v>1.581547289620978</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.411191313778129</v>
+        <v>3.594367655221516</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.581547289620978</v>
+        <v>2.11147753725941e-13</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.594367655221516</v>
+        <v>4345645.346836911</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.11147753725941e-13</v>
+        <v>2.409259904090661e-05</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>4345645.346836911</v>
+        <v>3.987447939342168</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.409259904090661e-05</v>
+        <v>0.0001259235166634537</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>3.987447939342168</v>
+        <v>7.627998499416374</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001259235166634537</v>
+        <v>1.451807946765276</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.627998499416374</v>
+        <v>0.007327031212455449</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.451807946765276</v>
+        <v>3.169247627967291</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.007327031212455449</v>
+        <v>0.9355080963095521</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.169247627967291</v>
+        <v>1.887163020894748</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9355080963095521</v>
+        <v>9</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.887163020894748</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1798034165050948</v>
       </c>
     </row>
@@ -4804,72 +4726,66 @@
         <v>3.938792358474556e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.8775304787309812</v>
+        <v>1.514392833611707e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.1661854921576782</v>
+        <v>1.348058598781315e-05</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.514392833611707e-06</v>
+        <v>-0.05368773908808037</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.348058598781315e-05</v>
+        <v>0.179723799939407</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05368773908808037</v>
+        <v>0.03517429869506084</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.179723799939407</v>
+        <v>1.521618234821902</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.03517429869506084</v>
+        <v>1.554531848541789</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.422838222657646</v>
+        <v>3.549308620725785</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.554531848541789</v>
+        <v>2.165428920656526e-13</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.549308620725785</v>
+        <v>4214324.250325651</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.165428920656526e-13</v>
+        <v>2.488579429583015e-05</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>4214324.250325651</v>
+        <v>3.845916289781181</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.488579429583015e-05</v>
+        <v>0.0001363991104152434</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>3.845916289781181</v>
+        <v>8.707218713746469</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001363991104152434</v>
+        <v>1.188328776283092</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.707218713746469</v>
+        <v>0.01034118826978446</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.188328776283092</v>
+        <v>2.924188859969869</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01034118826978446</v>
+        <v>0.9357620946594676</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.924188859969869</v>
+        <v>1.868904496129125</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9357620946594676</v>
+        <v>9</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.868904496129125</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1754648637694073</v>
       </c>
     </row>
@@ -4884,72 +4800,66 @@
         <v>3.818318880114691e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.9079231827926879</v>
+        <v>1.514392833611707e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.3642191850973973</v>
+        <v>1.345803393477491e-05</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.514392833611707e-06</v>
+        <v>-0.06209893603362144</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.345803393477491e-05</v>
+        <v>0.1815697161186665</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.06209893603362144</v>
+        <v>0.03682136549144639</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1815697161186665</v>
+        <v>1.51177426156529</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.03682136549144639</v>
+        <v>1.436409791460715</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.415752948372022</v>
+        <v>3.548147906349869</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.436409791460715</v>
+        <v>2.166845916598763e-13</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.548147906349869</v>
+        <v>4165460.938019734</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.166845916598763e-13</v>
+        <v>2.50859726037925e-05</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>4165460.938019734</v>
+        <v>3.759708396722309</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.50859726037925e-05</v>
+        <v>0.0001377124176545755</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>3.759708396722309</v>
+        <v>9.927376014588033</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001377124176545755</v>
+        <v>1.095630484022365</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.927376014588033</v>
+        <v>0.01357194360203193</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.095630484022365</v>
+        <v>2.814254567880881</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01357194360203193</v>
+        <v>0.936986883773047</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.814254567880881</v>
+        <v>1.883558744736975</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.936986883773047</v>
+        <v>7</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.883558744736975</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1762345234555203</v>
       </c>
     </row>
@@ -4964,72 +4874,66 @@
         <v>3.666850657789119e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.8839841215810992</v>
+        <v>1.523066292572679e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.4630582031950823</v>
+        <v>1.343346561115297e-05</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.523066292572679e-06</v>
+        <v>-0.06910292014447129</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.343346561115297e-05</v>
+        <v>0.1883683146756229</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.06910292014447129</v>
+        <v>0.04025621921584309</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1883683146756229</v>
+        <v>1.512832558393989</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.04025621921584309</v>
+        <v>1.39858838496375</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.419108781370346</v>
+        <v>3.660992625802892</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.39858838496375</v>
+        <v>2.035324931082237e-13</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.660992625802892</v>
+        <v>4411636.648410575</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.035324931082237e-13</v>
+        <v>2.368823034460943e-05</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>4411636.648410575</v>
+        <v>3.961258864582319</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.368823034460943e-05</v>
+        <v>0.0001278512256122481</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>3.961258864582319</v>
+        <v>10.8029429892598</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001278512256122481</v>
+        <v>1.179401797595176</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.8029429892598</v>
+        <v>0.01492069538208655</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.179401797595176</v>
+        <v>3.015521177017339</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01492069538208655</v>
+        <v>0.9364601301540459</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.015521177017339</v>
+        <v>1.903893021294335</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9364601301540459</v>
+        <v>7</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.903893021294335</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1841319160721928</v>
       </c>
     </row>
@@ -5044,72 +4948,66 @@
         <v>3.500667536254496e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.7890620561621848</v>
+        <v>1.57149504513401e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.3966645091126217</v>
+        <v>1.340760250602222e-05</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.57149504513401e-06</v>
+        <v>-0.0748281081503062</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.340760250602222e-05</v>
+        <v>0.1976291752561772</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.0748281081503062</v>
+        <v>0.04465443260740812</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1976291752561772</v>
+        <v>1.506474639946891</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.04465443260740812</v>
+        <v>1.392069642372328</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.412254072474751</v>
+        <v>3.863745135292772</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.392069642372328</v>
+        <v>1.827319623244308e-13</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.863745135292772</v>
+        <v>4931230.362845321</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.827319623244308e-13</v>
+        <v>2.11292198391756e-05</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>4931230.362845321</v>
+        <v>4.443499138161948</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.11292198391756e-05</v>
+        <v>0.0001251545575302988</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>4.443499138161948</v>
+        <v>9.164610254654548</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001251545575302988</v>
+        <v>1.605171361166604</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.164610254654548</v>
+        <v>0.01051174143947237</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.605171361166604</v>
+        <v>3.27336455077095</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01051174143947237</v>
+        <v>0.9341858743848707</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.27336455077095</v>
+        <v>1.880739577215337</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9341858743848707</v>
+        <v>12</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.880739577215337</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1869151493074924</v>
       </c>
     </row>
@@ -5124,72 +5022,66 @@
         <v>3.342302344488554e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.6308974651629335</v>
+        <v>1.557329980676625e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.1831504503249839</v>
+        <v>1.338146029511513e-05</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.557329980676625e-06</v>
+        <v>-0.07767132988457458</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.338146029511513e-05</v>
+        <v>0.2066402041600112</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.07767132988457458</v>
+        <v>0.04872905422114511</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2066402041600112</v>
+        <v>1.504679151862021</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.04872905422114511</v>
+        <v>1.386192602367855</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.413495828608325</v>
+        <v>4.067141693175352</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.386192602367855</v>
+        <v>1.567403215448157e-13</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.067141693175352</v>
+        <v>5730522.703245098</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.567403215448157e-13</v>
+        <v>1.817438401155511e-05</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>5730522.703245098</v>
+        <v>5.147178248685332</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.817438401155511e-05</v>
+        <v>0.000122232572707535</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>5.147178248685332</v>
+        <v>6.856052683274939</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.000122232572707535</v>
+        <v>2.044805736028646</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>6.856052683274939</v>
+        <v>0.005745598111020706</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>2.044805736028646</v>
+        <v>3.323587717089123</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.005745598111020706</v>
+        <v>0.9317347932558885</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.323587717089123</v>
+        <v>1.892522299263497</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9317347932558885</v>
+        <v>12</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.892522299263497</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1875365009002334</v>
       </c>
     </row>
@@ -5204,72 +5096,66 @@
         <v>3.206082242120949e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.4337470256715497</v>
+        <v>1.516178054512747e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.1090973601922318</v>
+        <v>1.335583490846457e-05</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.516178054512747e-06</v>
+        <v>-0.0788286101605369</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.335583490846457e-05</v>
+        <v>0.2144481608432687</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.0788286101605369</v>
+        <v>0.05219864427118543</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2144481608432687</v>
+        <v>1.545925271916075</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.05219864427118543</v>
+        <v>1.496218156481335</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.453952781023303</v>
+        <v>3.661869309921586</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.496218156481335</v>
+        <v>1.458784694246298e-13</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.661869309921586</v>
+        <v>6113005.512500184</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.458784694246298e-13</v>
+        <v>1.728221964828299e-05</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>6113005.512500184</v>
+        <v>5.451308657607113</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.728221964828299e-05</v>
+        <v>0.0001267455297967383</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>5.451308657607113</v>
+        <v>7.523204943344185</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001267455297967383</v>
+        <v>1.315318967494311</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.523204943344185</v>
+        <v>0.007173621142226287</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.315318967494311</v>
+        <v>3.086475495352009</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.007173621142226287</v>
+        <v>0.9365710757772571</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.086475495352009</v>
+        <v>1.870892782148064</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9365710757772571</v>
+        <v>12</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.870892782148064</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1883804636484715</v>
       </c>
     </row>
@@ -5284,72 +5170,66 @@
         <v>3.092660502479607e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.2177030221625542</v>
+        <v>1.445114508339543e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.4469111992946408</v>
+        <v>1.333109038522745e-05</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.445114508339543e-06</v>
+        <v>-0.07789780089575146</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.333109038522745e-05</v>
+        <v>0.2204071394125187</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.07789780089575146</v>
+        <v>0.05463867275673037</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2204071394125187</v>
+        <v>1.564228644583225</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.05463867275673037</v>
+        <v>1.603367804390975</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.471880982126669</v>
+        <v>3.663122044374121</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.603367804390975</v>
+        <v>1.457787098567461e-13</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.663122044374121</v>
+        <v>6139353.564565466</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.457787098567461e-13</v>
+        <v>1.734581202666581e-05</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>6139353.564565466</v>
+        <v>5.494641886522766</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.734581202666581e-05</v>
+        <v>0.0001543693988003074</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>5.494641886522766</v>
+        <v>9.87991422026737</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001543693988003074</v>
+        <v>1.189225169478716</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.87991422026737</v>
+        <v>0.01506841458609728</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.189225169478716</v>
+        <v>2.679148308916687</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01506841458609728</v>
+        <v>0.9408699288188216</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.679148308916687</v>
+        <v>1.839635790699314</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9408699288188216</v>
+        <v>10</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.839635790699314</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1729383171031523</v>
       </c>
     </row>
@@ -5364,72 +5244,66 @@
         <v>3.017448489824392e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.03058795760726199</v>
+        <v>1.35200014247443e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.7020498174264342</v>
+        <v>1.330779495618232e-05</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.35200014247443e-06</v>
+        <v>-0.07470739711737881</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.330779495618232e-05</v>
+        <v>0.2213526653824691</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.07470739711737881</v>
+        <v>0.05456392784933437</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2213526653824691</v>
+        <v>1.568924039865009</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.05456392784933437</v>
+        <v>1.607372232757126</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.474361572162535</v>
+        <v>3.769020488485759</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.607372232757126</v>
+        <v>1.377018840763164e-13</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.769020488485759</v>
+        <v>6515918.178807955</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.377018840763164e-13</v>
+        <v>1.637729526900994e-05</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>6515918.178807955</v>
+        <v>5.846435016054682</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.637729526900994e-05</v>
+        <v>0.0001805039287815643</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>5.846435016054682</v>
+        <v>11.46079472341839</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001805039287815643</v>
+        <v>1.101308925710355</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>11.46079472341839</v>
+        <v>0.0237091577772008</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.101308925710355</v>
+        <v>2.405891630272137</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.0237091577772008</v>
+        <v>0.9420634700254953</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.405891630272137</v>
+        <v>1.860768256909324</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9420634700254953</v>
+        <v>10</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.860768256909324</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1577936267039135</v>
       </c>
     </row>
@@ -5444,72 +5318,66 @@
         <v>2.99542478755544e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.1062687677692166</v>
+        <v>1.290725441489091e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.7921658245568848</v>
+        <v>1.32858401577766e-05</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.290725441489091e-06</v>
+        <v>-0.07184590294639152</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.32858401577766e-05</v>
+        <v>0.2192709624634402</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.07184590294639152</v>
+        <v>0.05323028352710744</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2192709624634402</v>
+        <v>1.606139752559304</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.05323028352710744</v>
+        <v>1.476820361221753</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.511661512479223</v>
+        <v>3.784779325636357</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.476820361221753</v>
+        <v>1.365575616853125e-13</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.784779325636357</v>
+        <v>6509578.849097714</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.365575616853125e-13</v>
+        <v>1.665670151353185e-05</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>6509578.849097714</v>
+        <v>5.786574346549727</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.665670151353185e-05</v>
+        <v>0.0001928899655327008</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>5.786574346549727</v>
+        <v>11.06372950190377</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001928899655327008</v>
+        <v>1.156290654334437</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>11.06372950190377</v>
+        <v>0.023610910433658</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.156290654334437</v>
+        <v>2.536713944528286</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.023610910433658</v>
+        <v>0.9445936198401195</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.536713944528286</v>
+        <v>1.880499549022133</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9445936198401195</v>
+        <v>9</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.880499549022133</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1447550047540825</v>
       </c>
     </row>
@@ -5524,72 +5392,66 @@
         <v>3.021293052986647e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.2175380510889934</v>
+        <v>1.289796951480458e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.7571968598365419</v>
+        <v>1.326443390283672e-05</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.289796951480458e-06</v>
+        <v>-0.0711691912161302</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.326443390283672e-05</v>
+        <v>0.2172209982056778</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.0711691912161302</v>
+        <v>0.05224417131035531</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2172209982056778</v>
+        <v>1.69257775016345</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.05224417131035531</v>
+        <v>1.446606183305255</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.603501721000997</v>
+        <v>3.984716019031742</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.446606183305255</v>
+        <v>1.231975659872026e-13</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.984716019031742</v>
+        <v>6772713.828695218</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.231975659872026e-13</v>
+        <v>1.68297510005948e-05</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>6772713.828695218</v>
+        <v>5.651029553663759</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.68297510005948e-05</v>
+        <v>0.0001833666091789462</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>5.651029553663759</v>
+        <v>8.995933183353934</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001833666091789462</v>
+        <v>1.513241149065036</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.995933183353934</v>
+        <v>0.0148392754453808</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.513241149065036</v>
+        <v>2.821038687037235</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.0148392754453808</v>
+        <v>0.9510932574193267</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.821038687037235</v>
+        <v>1.782879406855954</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9510932574193267</v>
+        <v>8</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.782879406855954</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1508021914828037</v>
       </c>
     </row>
@@ -5604,72 +5466,66 @@
         <v>3.079682697982042e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.336906380236681</v>
+        <v>1.346803133622543e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.6488305501913509</v>
+        <v>1.324249427498357e-05</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.346803133622543e-06</v>
+        <v>-0.07290116355976964</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.324249427498357e-05</v>
+        <v>0.214692847378628</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.07290116355976964</v>
+        <v>0.0514026758410391</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.214692847378628</v>
+        <v>1.696461215613066</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.0514026758410391</v>
+        <v>1.432052102610705</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.610674590043983</v>
+        <v>5.087577415287888</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.432052102610705</v>
+        <v>6.357108955562861e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.087577415287888</v>
+        <v>12645811.47533519</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>6.357108955562861e-14</v>
+        <v>9.037658522183833e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>12645811.47533519</v>
+        <v>10.16606918605288</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>9.037658522183833e-06</v>
+        <v>0.0001304275799942293</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>10.16606918605288</v>
+        <v>8.068840345856355</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001304275799942293</v>
+        <v>1.373403965810106</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.068840345856355</v>
+        <v>0.00849164209050382</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.373403965810106</v>
+        <v>3.079628310341169</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.00849164209050382</v>
+        <v>0.9514549382998634</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.079628310341169</v>
+        <v>1.792893305143793</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9514549382998634</v>
+        <v>16</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.792893305143793</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2009386816768933</v>
       </c>
     </row>
@@ -5684,72 +5540,66 @@
         <v>3.166006515294437e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.4671624758965146</v>
+        <v>1.381474610530665e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.4872477808130076</v>
+        <v>1.321969727080897e-05</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.381474610530665e-06</v>
+        <v>-0.07274588288360315</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.321969727080897e-05</v>
+        <v>0.2100110188648026</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.07274588288360315</v>
+        <v>0.04938982574196714</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2100110188648026</v>
+        <v>1.750617383127861</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.04938982574196714</v>
+        <v>1.631295099701814</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.678472716005091</v>
+        <v>3.927253309938963</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.631295099701814</v>
+        <v>3.297666716538586e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.927253309938963</v>
+        <v>24766584.17334639</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.297666716538586e-14</v>
+        <v>4.682294652665331e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>24766584.17334639</v>
+        <v>20.22734984307844</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>4.682294652665331e-06</v>
+        <v>0.0001235143938170387</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>20.22734984307844</v>
+        <v>8.351534898916134</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001235143938170387</v>
+        <v>1.356903314522851</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.351534898916134</v>
+        <v>0.008614898635121436</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.356903314522851</v>
+        <v>2.967282132817971</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.008614898635121436</v>
+        <v>0.9540996902801805</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.967282132817971</v>
+        <v>1.723343973504387</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9540996902801805</v>
+        <v>19</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.723343973504387</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2274619883831301</v>
       </c>
     </row>
@@ -5764,72 +5614,66 @@
         <v>3.286339095222686e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.5840319641546552</v>
+        <v>1.394610173492525e-06</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.2957777274139981</v>
+        <v>1.319657182998358e-05</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.394610173492525e-06</v>
+        <v>-0.07074491072687382</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.319657182998358e-05</v>
+        <v>0.2028174543294407</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.07074491072687382</v>
+        <v>0.0461349060917928</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.2028174543294407</v>
+        <v>1.772136430300722</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.0461349060917928</v>
+        <v>1.781408565162461</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.713465935054431</v>
+        <v>4.010586041818119</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.781408565162461</v>
+        <v>3.068842930549455e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.010586041818119</v>
+        <v>24332401.69858238</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.068842930549455e-14</v>
+        <v>4.78259735606544e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>24332401.69858238</v>
+        <v>18.16956860115025</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>4.78259735606544e-06</v>
+        <v>0.0001174406227256142</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>18.16956860115025</v>
+        <v>7.326939178940376</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001174406227256142</v>
+        <v>1.37565261447415</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>7.326939178940376</v>
+        <v>0.006304686821658703</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.37565261447415</v>
+        <v>3.159221427104246</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.006304686821658703</v>
+        <v>0.955806758069573</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.159221427104246</v>
+        <v>1.704132235187234</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.955806758069573</v>
+        <v>18</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.704132235187234</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2310133603250495</v>
       </c>
     </row>
@@ -5844,72 +5688,66 @@
         <v>3.433350104332672e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.6817045167627277</v>
+        <v>1.450437728265196e-06</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.1217608187292489</v>
+        <v>1.317306985458058e-05</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.450437728265196e-06</v>
+        <v>-0.06947747702994313</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.317306985458058e-05</v>
+        <v>0.1949189987288152</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.06947747702994313</v>
+        <v>0.04281830637718564</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1949189987288152</v>
+        <v>1.778580346971804</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.04281830637718564</v>
+        <v>1.651030948559681</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.722588422921381</v>
+        <v>4.109636251158497</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.651030948559681</v>
+        <v>2.922695491459349e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.109636251158497</v>
+        <v>25293430.09211385</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>2.922695491459349e-14</v>
+        <v>4.615897416886578e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>25293430.09211385</v>
+        <v>18.69816670170533</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>4.615897416886578e-06</v>
+        <v>0.0001237650166637354</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>18.69816670170533</v>
+        <v>7.498954491210805</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001237650166637354</v>
+        <v>1.605276523157109</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>7.498954491210805</v>
+        <v>0.006959841361430495</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.605276523157109</v>
+        <v>3.212944182546623</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.006959841361430495</v>
+        <v>0.9567201596102045</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.212944182546623</v>
+        <v>1.709773566334123</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9567201596102045</v>
+        <v>18</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.709773566334123</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2408529522324212</v>
       </c>
     </row>
@@ -5924,72 +5762,66 @@
         <v>3.593874780753353e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.763071802011956</v>
+        <v>1.515404038401457e-06</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.005821597923243882</v>
+        <v>1.314879345903672e-05</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.515404038401457e-06</v>
+        <v>-0.06865189448057615</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.314879345903672e-05</v>
+        <v>0.1867614266265641</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.06865189448057615</v>
+        <v>0.03959148004355174</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1867614266265641</v>
+        <v>1.777100654828257</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.03959148004355174</v>
+        <v>1.613117672695159</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.723805586156601</v>
+        <v>4.449324992350142</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.613117672695159</v>
+        <v>2.493458122790871e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.449324992350142</v>
+        <v>29572320.96342662</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2.493458122790871e-14</v>
+        <v>3.94503526951497e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>29572320.96342662</v>
+        <v>21.80584401275556</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>3.94503526951497e-06</v>
+        <v>0.0001395473985880012</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>21.80584401275556</v>
+        <v>9.407145771710953</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001395473985880012</v>
+        <v>1.266276617943799</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.407145771710953</v>
+        <v>0.01234916213325204</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.266276617943799</v>
+        <v>2.982272245313295</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01234916213325204</v>
+        <v>0.9573454259369537</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.982272245313295</v>
+        <v>1.695570144441281</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9573454259369537</v>
+        <v>18</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.695570144441281</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.2422021382476232</v>
       </c>
     </row>
@@ -6004,72 +5836,66 @@
         <v>3.762567056671947e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.8232027866269693</v>
+        <v>1.570177169645574e-06</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.07336730616990472</v>
+        <v>1.312390462347131e-05</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.570177169645574e-06</v>
+        <v>-0.06643700654341955</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.312390462347131e-05</v>
+        <v>0.1786266916462439</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.06643700654341955</v>
+        <v>0.03631975544038164</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1786266916462439</v>
+        <v>1.78352013796097</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.03631975544038164</v>
+        <v>1.620471323062927</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.728665537481403</v>
+        <v>4.815853626988622</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.620471323062927</v>
+        <v>1.866380188559215e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.815853626988622</v>
+        <v>39414813.11011609</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.866380188559215e-14</v>
+        <v>2.96391490424793e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>39414813.11011609</v>
+        <v>28.99472934394113</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.96391490424793e-06</v>
+        <v>0.0001412365820792575</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>28.99472934394113</v>
+        <v>10.21590048925898</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001412365820792575</v>
+        <v>1.174466555381193</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>10.21590048925898</v>
+        <v>0.01474010261517277</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.174466555381193</v>
+        <v>2.837728748415949</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01474010261517277</v>
+        <v>0.9569482391337906</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.837728748415949</v>
+        <v>1.693383139842674</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9569482391337906</v>
+        <v>18</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.693383139842674</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.2361489861398472</v>
       </c>
     </row>
@@ -6084,72 +5910,66 @@
         <v>3.938494300137586e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.8554883891221059</v>
+        <v>1.614002671432203e-06</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.07518626519864613</v>
+        <v>1.309895159565383e-05</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.614002671432203e-06</v>
+        <v>-0.06323326421138277</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.309895159565383e-05</v>
+        <v>0.170572231605269</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.06323326421138277</v>
+        <v>0.03309240607540007</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.170572231605269</v>
+        <v>1.82566919600552</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.03309240607540007</v>
+        <v>1.983878642016772</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.787089863218206</v>
+        <v>4.06625824102995</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.983878642016772</v>
+        <v>1.736755610090592e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.06625824102995</v>
+        <v>41837460.54919121</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.736755610090592e-14</v>
+        <v>2.81926582889959e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>41837460.54919121</v>
+        <v>30.39970310216702</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.81926582889959e-06</v>
+        <v>0.0001307547922363228</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>30.39970310216702</v>
+        <v>9.291668919202023</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001307547922363228</v>
+        <v>1.194362178237497</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.291668919202023</v>
+        <v>0.01128872954126281</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.194362178237497</v>
+        <v>2.977880072146881</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01128872954126281</v>
+        <v>0.9568256825809772</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.977880072146881</v>
+        <v>1.628882573946057</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9568256825809772</v>
+        <v>17</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.628882573946057</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.2350895922061899</v>
       </c>
     </row>
@@ -6164,72 +5984,66 @@
         <v>4.117185820685114e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.8635577632822468</v>
+        <v>1.652048729697254e-06</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.0224488272514054</v>
+        <v>1.307407449727688e-05</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.652048729697254e-06</v>
+        <v>-0.06021385748011902</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.307407449727688e-05</v>
+        <v>0.1630888578589118</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.06021385748011902</v>
+        <v>0.03022219490694264</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1630888578589118</v>
+        <v>1.829366277752323</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.03022219490694264</v>
+        <v>1.893776462315492</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.79579020223385</v>
+        <v>4.131684384399398</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.893776462315492</v>
+        <v>1.68218728442614e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.131684384399398</v>
+        <v>43055841.75718249</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.68218728442614e-14</v>
+        <v>2.740651877330872e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>43055841.75718249</v>
+        <v>31.1844805574467</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.740651877330872e-06</v>
+        <v>0.0001333703423024712</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>31.1844805574467</v>
+        <v>8.244169758670056</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001333703423024712</v>
+        <v>1.340515310512568</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.244169758670056</v>
+        <v>0.00906469336529744</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.340515310512568</v>
+        <v>3.109903841534826</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.00906469336529744</v>
+        <v>0.9552268500631002</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.109903841534826</v>
+        <v>1.64952585649295</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9552268500631002</v>
+        <v>17</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.64952585649295</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2250763749121842</v>
       </c>
     </row>
@@ -6244,72 +6058,66 @@
         <v>4.299396081075989e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.8511645085239752</v>
+        <v>1.684777336949784e-06</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.07061578730884532</v>
+        <v>1.304966203603561e-05</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.684777336949784e-06</v>
+        <v>-0.05555375091425929</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.304966203603561e-05</v>
+        <v>0.1549991787477405</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.05555375091425929</v>
+        <v>0.02710684304772871</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1549991787477405</v>
+        <v>1.844078531769774</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02710684304772871</v>
+        <v>1.733272078246965</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.815487715791537</v>
+        <v>4.151779815853777</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.733272078246965</v>
+        <v>1.665942458794315e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.151779815853777</v>
+        <v>44443091.46665596</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.665942458794315e-14</v>
+        <v>2.662547586278828e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>44443091.46665596</v>
+        <v>32.90550184882381</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.662547586278828e-06</v>
+        <v>0.0001542582383239347</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>32.90550184882381</v>
+        <v>8.428083280850368</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001542582383239347</v>
+        <v>1.49817098003275</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.428083280850368</v>
+        <v>0.01095736185591359</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.49817098003275</v>
+        <v>3.05984954771539</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01095736185591359</v>
+        <v>0.9573384764998559</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.05984954771539</v>
+        <v>1.585186471515317</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9573384764998559</v>
+        <v>12</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.585186471515317</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2284639395709192</v>
       </c>
     </row>
@@ -6324,72 +6132,66 @@
         <v>4.48722009744731e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.8218319343660976</v>
+        <v>1.706969739353924e-06</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.1971601905921023</v>
+        <v>1.30265484262459e-05</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.706969739353924e-06</v>
+        <v>-0.04967335238742986</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.30265484262459e-05</v>
+        <v>0.1459885811754554</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.04967335238742986</v>
+        <v>0.02377574254659254</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1459885811754554</v>
+        <v>1.841013006585284</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02377574254659254</v>
+        <v>1.735311153059678</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.807883987649421</v>
+        <v>4.153588636919663</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.735311153059678</v>
+        <v>1.664491792425767e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.153588636919663</v>
+        <v>43404840.51166075</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.664491792425767e-14</v>
+        <v>2.727326924918462e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>43404840.51166075</v>
+        <v>31.35869546441005</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.727326924918462e-06</v>
+        <v>0.0001807400033662681</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>31.35869546441005</v>
+        <v>10.45062797425835</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001807400033662681</v>
+        <v>1.239133196751976</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>10.45062797425835</v>
+        <v>0.019739632440334</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.239133196751976</v>
+        <v>2.812471857257671</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.019739632440334</v>
+        <v>0.9582128887226773</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.812471857257671</v>
+        <v>1.633020899796841</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9582128887226773</v>
+        <v>12</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.633020899796841</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2844861954646146</v>
       </c>
     </row>
@@ -6766,7 +6568,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.516012711893881</v>
+        <v>1.465349213375525</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.7867596569819</v>
@@ -6855,7 +6657,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.539122710428761</v>
+        <v>1.47818648249812</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.431907004352117</v>
@@ -6944,7 +6746,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.545842518867503</v>
+        <v>1.487767689218563</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.8785280398861</v>
@@ -7033,7 +6835,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.548337795408834</v>
+        <v>1.486402967960107</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.932737269493804</v>
@@ -7122,7 +6924,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.546031833762529</v>
+        <v>1.482362856823089</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.910211001940079</v>
@@ -7211,7 +7013,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.541081026511181</v>
+        <v>1.474706521451314</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.642291586848962</v>
@@ -7300,7 +7102,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.556899708816041</v>
+        <v>1.489410599329565</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.039288501352467</v>
@@ -7389,7 +7191,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.552024823616773</v>
+        <v>1.488169337002888</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.784153692922024</v>
@@ -7478,7 +7280,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.552057769383427</v>
+        <v>1.487657344490025</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.58827857221475</v>
@@ -7567,7 +7369,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.540287221896311</v>
+        <v>1.480868566241379</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.759035148144148</v>
@@ -7656,7 +7458,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.528755092698387</v>
+        <v>1.472257738894249</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.439373578979652</v>
@@ -7745,7 +7547,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.497964356404951</v>
+        <v>1.455199113449999</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.389566858986546</v>
@@ -7834,7 +7636,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.506540356842598</v>
+        <v>1.456597979836202</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.612794441268052</v>
@@ -7923,7 +7725,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.498774549950125</v>
+        <v>1.450193868954273</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.589418991700911</v>
@@ -8012,7 +7814,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.513456317066161</v>
+        <v>1.455610375368281</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.399407078525592</v>
@@ -8101,7 +7903,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.507589184223458</v>
+        <v>1.446214495324466</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.60363794274437</v>
@@ -8190,7 +7992,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.508441704423446</v>
+        <v>1.443402926725067</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.708869453437929</v>
@@ -8279,7 +8081,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.508003819715097</v>
+        <v>1.450683933604911</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.693092452744599</v>
@@ -8368,7 +8170,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.507106724245033</v>
+        <v>1.446727034467596</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.727675619139498</v>
@@ -8457,7 +8259,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.501201269368029</v>
+        <v>1.439499064264767</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.638390902687764</v>
@@ -8546,7 +8348,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.491167044722468</v>
+        <v>1.430895411828751</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.682241152826543</v>
@@ -8635,7 +8437,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.488490938211827</v>
+        <v>1.429325596146991</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.621461047285128</v>
@@ -8724,7 +8526,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.497445581388626</v>
+        <v>1.437670955168233</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.704061887607346</v>
@@ -8813,7 +8615,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.501258926125127</v>
+        <v>1.442284412202514</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.658510216222679</v>
@@ -8902,7 +8704,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.512661238288077</v>
+        <v>1.452408629865438</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.505147291346923</v>
@@ -8991,7 +8793,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.555358458903442</v>
+        <v>1.483105792373134</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.295766629965624</v>
@@ -9080,7 +8882,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.591486007798135</v>
+        <v>1.501706986115191</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.842158971087527</v>
@@ -9169,7 +8971,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.597665535045249</v>
+        <v>1.515691675570809</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.79524572205223</v>
@@ -9258,7 +9060,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.62673264226677</v>
+        <v>1.536446997616516</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.836875611908193</v>
@@ -9347,7 +9149,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.621462368126653</v>
+        <v>1.53340478685026</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.107552399384354</v>
@@ -9436,7 +9238,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.611850161661432</v>
+        <v>1.529465346156115</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.297756517773383</v>
@@ -9525,7 +9327,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.619712435034379</v>
+        <v>1.534072293680558</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.877075161403464</v>
@@ -9614,7 +9416,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.623769803259016</v>
+        <v>1.537397825132938</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.645940966022028</v>
@@ -9703,7 +9505,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.624502891797729</v>
+        <v>1.544370254440568</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.157107341317962</v>
@@ -9792,7 +9594,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.637531847359851</v>
+        <v>1.556878681709108</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.79751196183213</v>
@@ -9881,7 +9683,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.664180482448632</v>
+        <v>1.574922796148459</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.308785731330336</v>
@@ -9970,7 +9772,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.674573420065912</v>
+        <v>1.586566191692834</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.967712957724815</v>
@@ -10059,7 +9861,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.662144425901199</v>
+        <v>1.572478318401076</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.800100561315319</v>
@@ -10148,7 +9950,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.664579654885362</v>
+        <v>1.572972753526884</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.20603919987926</v>
@@ -10237,7 +10039,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.666086958188562</v>
+        <v>1.57449361009594</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.154009573270051</v>
@@ -10326,7 +10128,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.665470351041776</v>
+        <v>1.574591910228396</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.161923797821773</v>
@@ -10415,7 +10217,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.669427006317996</v>
+        <v>1.580586471353333</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.141667636600664</v>
@@ -10504,7 +10306,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.667283786981431</v>
+        <v>1.559397014992107</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.862781964426416</v>
@@ -10593,7 +10395,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.668570623281435</v>
+        <v>1.562494410810601</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.149276759167251</v>
@@ -10682,7 +10484,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.646403145338706</v>
+        <v>1.545058616324538</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.877280692784505</v>
@@ -10771,7 +10573,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.631400886992836</v>
+        <v>1.544479189291799</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.931786925054824</v>
@@ -10860,7 +10662,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.62811282539826</v>
+        <v>1.545713643501177</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.063637153860845</v>
@@ -10949,7 +10751,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.613629835270156</v>
+        <v>1.535915782568616</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.939733729160551</v>
@@ -11038,7 +10840,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.627607522384588</v>
+        <v>1.550726807634977</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.097452953563355</v>
@@ -11127,7 +10929,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.606387449298995</v>
+        <v>1.527351330710703</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.025436997296011</v>
@@ -11216,7 +11018,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.603573088046239</v>
+        <v>1.531176115164846</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.938425215946892</v>
@@ -11305,7 +11107,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.584573612588115</v>
+        <v>1.512414573345154</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.085027887532036</v>
@@ -11394,7 +11196,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.594451422471554</v>
+        <v>1.515287331922278</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.944850844927407</v>
@@ -11483,7 +11285,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.601081620841765</v>
+        <v>1.518105257169673</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.895522289527611</v>
@@ -11572,7 +11374,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.597121907851665</v>
+        <v>1.505513290882124</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.911033929421029</v>
@@ -11661,7 +11463,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.591919169979009</v>
+        <v>1.502659930121561</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.936784893791192</v>
@@ -11750,7 +11552,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.594837672047719</v>
+        <v>1.507172882820667</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.931788161580844</v>
@@ -11839,7 +11641,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.599167273740089</v>
+        <v>1.517515093606652</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.949672578363672</v>
@@ -11928,7 +11730,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.591580612763929</v>
+        <v>1.510107919279626</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.914316011770111</v>
@@ -12017,7 +11819,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.618336803533474</v>
+        <v>1.523362772143786</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.682010875169936</v>
@@ -12106,7 +11908,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.629804136850404</v>
+        <v>1.532198866806057</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.88178670241669</v>
@@ -12195,7 +11997,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.64063448166558</v>
+        <v>1.54014534202905</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.969920042833775</v>
@@ -12284,7 +12086,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.640332178115804</v>
+        <v>1.533976427648334</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.844400833513332</v>
@@ -12373,7 +12175,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.652746245749608</v>
+        <v>1.540596753933362</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.093500877943437</v>
@@ -12462,7 +12264,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.666056963687166</v>
+        <v>1.550273883558842</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.599567805910499</v>
@@ -12551,7 +12353,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.664493063715367</v>
+        <v>1.549465363694907</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.838241555086666</v>
@@ -12640,7 +12442,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.692502500409006</v>
+        <v>1.566738182839696</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.026472006519301</v>
@@ -12729,7 +12531,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.691590051196327</v>
+        <v>1.568362379302268</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.001768350474348</v>
@@ -12818,7 +12620,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.691826633546221</v>
+        <v>1.574682654767577</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.989111263976175</v>
@@ -12907,7 +12709,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.692996131351082</v>
+        <v>1.576651788930138</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.927072262547633</v>
@@ -12996,7 +12798,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.690093453293432</v>
+        <v>1.578134367337239</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.006048991155711</v>
@@ -13085,7 +12887,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.697293824635277</v>
+        <v>1.588127888043299</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.085147931922921</v>
@@ -13174,7 +12976,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.692963344101959</v>
+        <v>1.587413609811791</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.762696059591109</v>
@@ -13263,7 +13065,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.702724758409007</v>
+        <v>1.59257992598466</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.740406437153388</v>
@@ -13352,7 +13154,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.712085481875903</v>
+        <v>1.601385445835449</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.748188062455783</v>
@@ -13441,7 +13243,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.70672941041067</v>
+        <v>1.600545177413706</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.033013725097786</v>
@@ -13727,7 +13529,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.694165905729152</v>
+        <v>1.642417620509919</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.674205838562999</v>
@@ -13816,7 +13618,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.705238996340319</v>
+        <v>1.648399213762997</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.130789007330603</v>
@@ -13905,7 +13707,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.716038135243896</v>
+        <v>1.646866173912846</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.435377497543017</v>
@@ -13994,7 +13796,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.708996589482142</v>
+        <v>1.641073441467146</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.536530329827758</v>
@@ -14083,7 +13885,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.7064442798543</v>
+        <v>1.647554666304217</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.580686366333187</v>
@@ -14172,7 +13974,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.70486694383279</v>
+        <v>1.646790433927405</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.575025969618233</v>
@@ -14261,7 +14063,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.717669666220256</v>
+        <v>1.652389256542508</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.311210163138985</v>
@@ -14350,7 +14152,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.717779313804803</v>
+        <v>1.656750336670132</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.610370310319164</v>
@@ -14439,7 +14241,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.717335716116138</v>
+        <v>1.658333594631285</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.407764926827733</v>
@@ -14528,7 +14330,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.704355913093412</v>
+        <v>1.650696108284273</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.408374886986492</v>
@@ -14617,7 +14419,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.542474417908994</v>
+        <v>1.520144785169885</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.796511155054787</v>
@@ -14706,7 +14508,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.516100235578336</v>
+        <v>1.501276657314258</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.794846024380268</v>
@@ -14795,7 +14597,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.519668111505131</v>
+        <v>1.498305044704484</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.804103323276151</v>
@@ -14884,7 +14686,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.513734881135849</v>
+        <v>1.487609741647803</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.793880940804353</v>
@@ -14973,7 +14775,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.512777558937148</v>
+        <v>1.480801113746604</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.790752510548608</v>
@@ -15062,7 +14864,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.50808545715823</v>
+        <v>1.475449686858872</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.784141890359958</v>
@@ -15151,7 +14953,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.505680371796507</v>
+        <v>1.473503279559061</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.790716783666406</v>
@@ -15240,7 +15042,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.5060587373957</v>
+        <v>1.481634924723835</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.804507579998866</v>
@@ -15329,7 +15131,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.515297353501213</v>
+        <v>1.488801823569407</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.819049971168529</v>
@@ -15418,7 +15220,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.510167390960638</v>
+        <v>1.478373266329927</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.801500994925379</v>
@@ -15507,7 +15309,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.501073769786403</v>
+        <v>1.47061821211868</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.825711816578587</v>
@@ -15596,7 +15398,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.501941647508007</v>
+        <v>1.473190787898637</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.820101454893692</v>
@@ -15685,7 +15487,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.500140493970275</v>
+        <v>1.470709963448302</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.815109654434939</v>
@@ -15774,7 +15576,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.506497896525752</v>
+        <v>1.476846061096604</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.799086493581235</v>
@@ -15863,7 +15665,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.509437977423929</v>
+        <v>1.479565803476887</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.76691880018798</v>
@@ -15952,7 +15754,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.658239100267385</v>
+        <v>1.594327313149249</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.192011512288144</v>
@@ -16041,7 +15843,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.697783424134244</v>
+        <v>1.627131985702688</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.280521464834441</v>
@@ -16130,7 +15932,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.697939594510419</v>
+        <v>1.629688170029208</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.452544184590399</v>
@@ -16219,7 +16021,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.710118026931083</v>
+        <v>1.644617618538199</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.554652719831688</v>
@@ -16308,7 +16110,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.709587770695217</v>
+        <v>1.656023246745756</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.606814310096966</v>
@@ -16397,7 +16199,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.698179131149425</v>
+        <v>1.653604835496386</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.183587574916809</v>
@@ -16486,7 +16288,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.701112157004535</v>
+        <v>1.654817227994099</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.312507961572213</v>
@@ -16575,7 +16377,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.699916365866253</v>
+        <v>1.652296934466527</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.305784746132797</v>
@@ -16664,7 +16466,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.68954802505953</v>
+        <v>1.648400796763203</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.254782923646621</v>
@@ -16753,7 +16555,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.698820708582451</v>
+        <v>1.66217404380184</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.085716031293037</v>
@@ -16842,7 +16644,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.712239014397712</v>
+        <v>1.662064445144282</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.021130494155408</v>
@@ -16931,7 +16733,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.710368576198986</v>
+        <v>1.658447938945162</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.086495509437696</v>
@@ -17020,7 +16822,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.712483922018373</v>
+        <v>1.659968851883237</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.302829060517892</v>
@@ -17109,7 +16911,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.713843710794774</v>
+        <v>1.658743531092965</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.343137626499254</v>
@@ -17198,7 +17000,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.71949399627553</v>
+        <v>1.665425123000223</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.173160000640724</v>
@@ -17287,7 +17089,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.733635035116437</v>
+        <v>1.676896020607716</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.340704161016045</v>
@@ -17376,7 +17178,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.73407263225572</v>
+        <v>1.670813772750102</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.25683199884062</v>
@@ -17465,7 +17267,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.738128027896516</v>
+        <v>1.671248246962615</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.310653286267959</v>
@@ -17554,7 +17356,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.731086639100416</v>
+        <v>1.665608466075381</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.295187095198286</v>
@@ -17643,7 +17445,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.703981496791095</v>
+        <v>1.636333546788652</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.250458249700921</v>
@@ -17732,7 +17534,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.686891353841937</v>
+        <v>1.622270527636838</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.21848995822859</v>
@@ -17821,7 +17623,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.66288778614707</v>
+        <v>1.606372615925417</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.76497714118503</v>
@@ -17910,7 +17712,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.65054575764021</v>
+        <v>1.598366341973648</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.992214155704967</v>
@@ -17999,7 +17801,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.646695271172699</v>
+        <v>1.599459777979908</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.884028974611529</v>
@@ -18088,7 +17890,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.638821380973163</v>
+        <v>1.58955639501586</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.818592252439738</v>
@@ -18177,7 +17979,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.645814732843113</v>
+        <v>1.601721851588604</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.008744890433218</v>
@@ -18266,7 +18068,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.632448783970067</v>
+        <v>1.592156494197382</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.856020407984763</v>
@@ -18355,7 +18157,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.635754759832206</v>
+        <v>1.59502149092285</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.902467027960235</v>
@@ -18444,7 +18246,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.63434447988236</v>
+        <v>1.587435680641054</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.7180805712206</v>
@@ -18533,7 +18335,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.62828347432494</v>
+        <v>1.569101026940812</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.054249022311208</v>
@@ -18622,7 +18424,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.624006568699305</v>
+        <v>1.564172368249323</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.720690573388824</v>
@@ -18711,7 +18513,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.625205592869018</v>
+        <v>1.570986358557974</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.990387448106768</v>
@@ -18800,7 +18602,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.624074127199645</v>
+        <v>1.571282298879418</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.761550789581874</v>
@@ -18889,7 +18691,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.624595778877933</v>
+        <v>1.573598392948522</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.834551833877571</v>
@@ -18978,7 +18780,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.651127065137402</v>
+        <v>1.59367963696018</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.730890068151602</v>
@@ -19067,7 +18869,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.668456167883332</v>
+        <v>1.607968557356333</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.98411653749046</v>
@@ -19156,7 +18958,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.706339718267924</v>
+        <v>1.632969933423013</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.087847298962302</v>
@@ -19245,7 +19047,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.729370511751624</v>
+        <v>1.643479827672418</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.137629133670688</v>
@@ -19334,7 +19136,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.74461834777453</v>
+        <v>1.654698772364201</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.188083671807841</v>
@@ -19423,7 +19225,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.746698797418205</v>
+        <v>1.654889078099437</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.400255893618912</v>
@@ -19512,7 +19314,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.739013865461943</v>
+        <v>1.646110884784516</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.456659863826256</v>
@@ -19601,7 +19403,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.751407554078161</v>
+        <v>1.656987780456049</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.459414481783768</v>
@@ -19690,7 +19492,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.753880469047347</v>
+        <v>1.661932163052975</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.454882574006925</v>
@@ -19779,7 +19581,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.752152325388979</v>
+        <v>1.67091778427144</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.569452108469717</v>
@@ -19868,7 +19670,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.758757084629756</v>
+        <v>1.68656738299963</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.769722803350164</v>
@@ -19957,7 +19759,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.754251243659433</v>
+        <v>1.694337189509668</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.373854044642051</v>
@@ -20046,7 +19848,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.739153040249592</v>
+        <v>1.679523679253178</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.195953121802559</v>
@@ -20135,7 +19937,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.732984389622025</v>
+        <v>1.677233718107178</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.6513370892844</v>
@@ -20224,7 +20026,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.721180908271728</v>
+        <v>1.669557896217017</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.488206803558463</v>
@@ -20313,7 +20115,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.724210736842089</v>
+        <v>1.674949224177384</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.451301712776954</v>
@@ -20402,7 +20204,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.709735592738495</v>
+        <v>1.669064001496926</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.116362037739787</v>
@@ -20688,7 +20490,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.678191915771571</v>
+        <v>1.562193166949271</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.479416438439511</v>
@@ -20777,7 +20579,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.678793793807928</v>
+        <v>1.553395913157988</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.126080941108031</v>
@@ -20866,7 +20668,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.680032140437069</v>
+        <v>1.566156276327061</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.758500273014041</v>
@@ -20955,7 +20757,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.673971739779496</v>
+        <v>1.556956015398125</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.21073213766628</v>
@@ -21044,7 +20846,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.662201186997298</v>
+        <v>1.545863396725914</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.564098900591676</v>
@@ -21133,7 +20935,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.666471382101064</v>
+        <v>1.550784481963957</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.474361262732673</v>
@@ -21222,7 +21024,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.67551440208112</v>
+        <v>1.554769693703256</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.68054997042213</v>
@@ -21311,7 +21113,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.675242886891724</v>
+        <v>1.557677065844534</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.645145719739446</v>
@@ -21400,7 +21202,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.672027688472268</v>
+        <v>1.559463172816605</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.372534101394036</v>
@@ -21489,7 +21291,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.668987571157382</v>
+        <v>1.547672838769097</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.592724095641703</v>
@@ -21578,7 +21380,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.657747468674196</v>
+        <v>1.5416670873316</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.230850698732848</v>
@@ -21667,7 +21469,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.648936340512882</v>
+        <v>1.542256469758972</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.135754178541934</v>
@@ -21756,7 +21558,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.658963581049241</v>
+        <v>1.546480316469347</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.218339866249043</v>
@@ -21845,7 +21647,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.657431426875246</v>
+        <v>1.540653090850831</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.229675748991857</v>
@@ -21934,7 +21736,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.664532071158959</v>
+        <v>1.543916711958956</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.915875804107019</v>
@@ -22023,7 +21825,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.661241796184388</v>
+        <v>1.543541364594219</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.120872081866214</v>
@@ -22112,7 +21914,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.666293830976729</v>
+        <v>1.545376195404957</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.00916703512532</v>
@@ -22201,7 +22003,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.665956092944723</v>
+        <v>1.547226784643249</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.058855113209684</v>
@@ -22290,7 +22092,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.670598217630452</v>
+        <v>1.549243717019181</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.080513013914137</v>
@@ -22379,7 +22181,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.668619840518544</v>
+        <v>1.548194072543633</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.354193780207186</v>
@@ -22468,7 +22270,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.655251620967833</v>
+        <v>1.539003539775537</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.118771905944362</v>
@@ -22557,7 +22359,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.662239408325153</v>
+        <v>1.544603562708014</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.968753080082486</v>
@@ -22646,7 +22448,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.663024560347017</v>
+        <v>1.534335412751437</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.295452842654937</v>
@@ -22735,7 +22537,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.672140643892371</v>
+        <v>1.546368285474482</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.128476564083175</v>
@@ -22824,7 +22626,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.671184225110084</v>
+        <v>1.550944689510515</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.357841901921064</v>
@@ -22913,7 +22715,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.681192686175203</v>
+        <v>1.547659827010217</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.459736245337569</v>
@@ -23002,7 +22804,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.677211058934383</v>
+        <v>1.537436386165513</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.676141827928532</v>
@@ -23091,7 +22893,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.675968125509762</v>
+        <v>1.54282003082174</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.094509462497093</v>
@@ -23180,7 +22982,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.684077554299582</v>
+        <v>1.550721283952276</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.659334868481865</v>
@@ -23269,7 +23071,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.680506162171872</v>
+        <v>1.547573291136223</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.650814545533416</v>
@@ -23358,7 +23160,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.673400465005253</v>
+        <v>1.535351266991048</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.991045946695476</v>
@@ -23447,7 +23249,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.673527067054618</v>
+        <v>1.537793584177557</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.780805576839916</v>
@@ -23536,7 +23338,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.672294782497457</v>
+        <v>1.536730906694498</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.822596076004626</v>
@@ -23625,7 +23427,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.680996868415333</v>
+        <v>1.54614371890973</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.208669229424222</v>
@@ -23714,7 +23516,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.681130544077569</v>
+        <v>1.546999638220386</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.524557454831825</v>
@@ -23803,7 +23605,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.695333637727924</v>
+        <v>1.548016274642802</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.228562427008835</v>
@@ -23892,7 +23694,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.691286150369711</v>
+        <v>1.550463977984021</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.848643139790438</v>
@@ -23981,7 +23783,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.693497921431504</v>
+        <v>1.557672763914927</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.370518344192215</v>
@@ -24070,7 +23872,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.701155322611528</v>
+        <v>1.564872751100793</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.530030814500884</v>
@@ -24159,7 +23961,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.707601398658236</v>
+        <v>1.571071398167151</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.01656048119648</v>
@@ -24248,7 +24050,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.724020741383812</v>
+        <v>1.590995760061215</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.828205431275953</v>
@@ -24337,7 +24139,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.732196571812161</v>
+        <v>1.602813822170681</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.915157824141885</v>
@@ -24426,7 +24228,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.724342747972946</v>
+        <v>1.589183659638179</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.501240399173729</v>
@@ -24515,7 +24317,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.720746966957896</v>
+        <v>1.585305074756238</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.43958743145876</v>
@@ -24604,7 +24406,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.711541174781848</v>
+        <v>1.570700730272116</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.48788190749806</v>
@@ -24693,7 +24495,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.712915564145673</v>
+        <v>1.582943505679766</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.438474922479807</v>
@@ -24782,7 +24584,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.710490749444336</v>
+        <v>1.588688151805322</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.631759208262878</v>
@@ -24871,7 +24673,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.722473060862755</v>
+        <v>1.614876025535103</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.46818459626698</v>
@@ -24960,7 +24762,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.72888069104553</v>
+        <v>1.628238687984618</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.550194326834997</v>
@@ -25049,7 +24851,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.729755086240935</v>
+        <v>1.628610532930639</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.611054405483108</v>
@@ -25138,7 +24940,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.733410203636097</v>
+        <v>1.644162188837315</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.435872927849144</v>
@@ -25227,7 +25029,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.722307902972007</v>
+        <v>1.63558467616403</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.593737942351036</v>
@@ -25316,7 +25118,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.721581067305602</v>
+        <v>1.636893413388789</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.592466130214303</v>
@@ -25405,7 +25207,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.719050212742977</v>
+        <v>1.630598757117149</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.230570050481079</v>
@@ -25494,7 +25296,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.713648479058084</v>
+        <v>1.619576108251849</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.474660841167948</v>
@@ -25583,7 +25385,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.705189851516546</v>
+        <v>1.610310161375954</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.465568540588187</v>
@@ -25672,7 +25474,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.705300599290395</v>
+        <v>1.61120779168387</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.237946730151533</v>
@@ -25761,7 +25563,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.709446346318306</v>
+        <v>1.617184839812105</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.596131788441694</v>
@@ -25850,7 +25652,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.71501031358967</v>
+        <v>1.624777097335007</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.509437672981808</v>
@@ -25939,7 +25741,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.723952504492092</v>
+        <v>1.6443108382806</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.883297207748639</v>
@@ -26028,7 +25830,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.730354854400231</v>
+        <v>1.648137148280459</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.300670002039496</v>
@@ -26117,7 +25919,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.735814463832547</v>
+        <v>1.652301426702614</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.984736313934324</v>
@@ -26206,7 +26008,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.726764100499905</v>
+        <v>1.631294758455413</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.085094154571699</v>
@@ -26295,7 +26097,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.726935783168262</v>
+        <v>1.620476246478042</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.804589426732459</v>
@@ -26384,7 +26186,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.732919228335466</v>
+        <v>1.627126773702912</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.25774770254747</v>
@@ -26473,7 +26275,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.732072956900646</v>
+        <v>1.618473365328009</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.465394443856207</v>
@@ -26562,7 +26364,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.742639150412742</v>
+        <v>1.623604818199431</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.577551638489676</v>
@@ -26651,7 +26453,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.739897197486026</v>
+        <v>1.618779675858198</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.565211007504821</v>
@@ -26740,7 +26542,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.744421276149633</v>
+        <v>1.62451352665852</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.777359633824648</v>
@@ -26829,7 +26631,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.748824192646533</v>
+        <v>1.628885052053908</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.404387000764267</v>
@@ -26918,7 +26720,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.740825749354252</v>
+        <v>1.626672985990189</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.827295543455275</v>
@@ -27007,7 +26809,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.73955852883605</v>
+        <v>1.632264203482272</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.891539224737766</v>
@@ -27096,7 +26898,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.732738867706618</v>
+        <v>1.626755868640787</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.539467848462012</v>
@@ -27185,7 +26987,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.733916767671976</v>
+        <v>1.632152509487054</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.969674646983905</v>
@@ -27274,7 +27076,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.732213869051157</v>
+        <v>1.623016035953214</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.275865181003512</v>
@@ -27363,7 +27165,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.724112224714134</v>
+        <v>1.61573988095102</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.358561960948604</v>
@@ -27649,7 +27451,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.743093672212322</v>
+        <v>1.604845670052031</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.70994940960167</v>
@@ -27738,7 +27540,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.739843090566051</v>
+        <v>1.594951768518501</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.591959462841275</v>
@@ -27827,7 +27629,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.739163465858961</v>
+        <v>1.592072921464672</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.441371039386452</v>
@@ -27916,7 +27718,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.737510909143586</v>
+        <v>1.586253784443158</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.63892148251268</v>
@@ -28005,7 +27807,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.728439290537199</v>
+        <v>1.575222470419143</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.138607093015263</v>
@@ -28094,7 +27896,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.733083838636775</v>
+        <v>1.571538553412161</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.479572022401532</v>
@@ -28183,7 +27985,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.74332634682763</v>
+        <v>1.592095018226349</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.248705753603206</v>
@@ -28272,7 +28074,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.738316575683932</v>
+        <v>1.593106079548872</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.691039431637618</v>
@@ -28361,7 +28163,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.74681948665334</v>
+        <v>1.608931597160752</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.307985907084416</v>
@@ -28450,7 +28252,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.749814187751595</v>
+        <v>1.602532702513352</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.776603141053914</v>
@@ -28539,7 +28341,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.717232778381906</v>
+        <v>1.584226049398127</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.110827073055613</v>
@@ -28628,7 +28430,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.719505386885092</v>
+        <v>1.592192749827352</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.130162090968063</v>
@@ -28717,7 +28519,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.71962623730135</v>
+        <v>1.589511601476619</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.85889185314608</v>
@@ -28806,7 +28608,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.71536835780922</v>
+        <v>1.577662748134219</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.839937470989592</v>
@@ -28895,7 +28697,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.712500181790362</v>
+        <v>1.562302460157949</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.119246054767391</v>
@@ -28984,7 +28786,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.707834553482921</v>
+        <v>1.561419763432798</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.767963106376792</v>
@@ -29073,7 +28875,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.70820683555979</v>
+        <v>1.551933390753347</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.778445429158253</v>
@@ -29162,7 +28964,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.705052954182434</v>
+        <v>1.551517662363148</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.868059642571129</v>
@@ -29251,7 +29053,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.706357530904088</v>
+        <v>1.553815062313816</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.986834332351986</v>
@@ -29340,7 +29142,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.70423124628599</v>
+        <v>1.548270157610069</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.985251909711748</v>
@@ -29429,7 +29231,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.705599889261738</v>
+        <v>1.553850161461915</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.902466083797066</v>
@@ -29518,7 +29320,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.703070058494469</v>
+        <v>1.544331682983734</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.728852238346913</v>
@@ -29607,7 +29409,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.70298482638224</v>
+        <v>1.533964188136097</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.054993256672435</v>
@@ -29696,7 +29498,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.695874609209261</v>
+        <v>1.527230124394197</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.785244616427834</v>
@@ -29785,7 +29587,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.698523226939909</v>
+        <v>1.530862807613618</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.008786746502936</v>
@@ -29874,7 +29676,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.725150144773176</v>
+        <v>1.540528570940194</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.755185986679093</v>
@@ -29963,7 +29765,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.719434327723535</v>
+        <v>1.533099600278286</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.164915253703956</v>
@@ -30052,7 +29854,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.720600970111005</v>
+        <v>1.52911341479162</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.575282196149131</v>
@@ -30141,7 +29943,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.721409832382479</v>
+        <v>1.530642901625907</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.718725736999362</v>
@@ -30230,7 +30032,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.7206185928739</v>
+        <v>1.539658646333443</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.983212556038921</v>
@@ -30319,7 +30121,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.721856410002808</v>
+        <v>1.547500359507545</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.352495928564423</v>
@@ -30408,7 +30210,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.735357696856515</v>
+        <v>1.576437527049906</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.387688495406002</v>
@@ -30497,7 +30299,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.733803290455277</v>
+        <v>1.582247958024174</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.582500423573412</v>
@@ -30586,7 +30388,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.746828807511339</v>
+        <v>1.594265890171986</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.076873920069573</v>
@@ -30675,7 +30477,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.761317057378476</v>
+        <v>1.616274718373877</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.98024128052332</v>
@@ -30764,7 +30566,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.76452156690171</v>
+        <v>1.599095770239117</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.548311750052017</v>
@@ -30853,7 +30655,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.758727005524267</v>
+        <v>1.592340114588422</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.506056106764284</v>
@@ -30942,7 +30744,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.759136621027272</v>
+        <v>1.605597575684852</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.012518343975539</v>
@@ -31031,7 +30833,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.757295261200953</v>
+        <v>1.588684905561442</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.785445698471892</v>
@@ -31120,7 +30922,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.751762988267709</v>
+        <v>1.579817549936828</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.615573678745105</v>
@@ -31209,7 +31011,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.751554789396446</v>
+        <v>1.5830747131107</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.911257366910796</v>
@@ -31298,7 +31100,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.754725346052219</v>
+        <v>1.588930650237699</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.072990661897236</v>
@@ -31387,7 +31189,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.75501585613982</v>
+        <v>1.602311766784755</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.748505307104721</v>
@@ -31476,7 +31278,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.760004373961795</v>
+        <v>1.610638537493718</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.536366273547571</v>
@@ -31565,7 +31367,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.757606922716792</v>
+        <v>1.612036459829193</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.309327265957884</v>
@@ -31654,7 +31456,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.758213034097454</v>
+        <v>1.608221301369075</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.374536005641801</v>
@@ -31743,7 +31545,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.752949733913419</v>
+        <v>1.608023824292767</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.583836737883324</v>
@@ -31832,7 +31634,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.762331358918909</v>
+        <v>1.620178073037298</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.884317477985282</v>
@@ -31921,7 +31723,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.751361516917403</v>
+        <v>1.618701102721121</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.623772296640213</v>
@@ -32010,7 +31812,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.741597209205934</v>
+        <v>1.606432924090027</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.656350859850356</v>
@@ -32099,7 +31901,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.740763361527827</v>
+        <v>1.624249796489573</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.183056426752717</v>
@@ -32188,7 +31990,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.73629558493046</v>
+        <v>1.626349032132681</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.839840512981295</v>
@@ -32277,7 +32079,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.735846541396289</v>
+        <v>1.615796189747638</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.412700219227113</v>
@@ -32366,7 +32168,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.735014018913703</v>
+        <v>1.618702708803599</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.372927868015337</v>
@@ -32455,7 +32257,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.733384642083411</v>
+        <v>1.612747413272087</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.441066409735892</v>
@@ -32544,7 +32346,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.730710098908967</v>
+        <v>1.597885935751734</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.500626951776212</v>
@@ -32633,7 +32435,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.723143156797551</v>
+        <v>1.587650600972374</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.502337295172698</v>
@@ -32722,7 +32524,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.723201812181165</v>
+        <v>1.580379477518211</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.843381893491155</v>
@@ -32811,7 +32613,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.718779451971262</v>
+        <v>1.581944632674753</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.352927908413035</v>
@@ -32900,7 +32702,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.720110655801811</v>
+        <v>1.586470159989676</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.427058405034264</v>
@@ -32989,7 +32791,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.720489003345228</v>
+        <v>1.585135649085785</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.62939416256892</v>
@@ -33078,7 +32880,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.720975694556251</v>
+        <v>1.580799333921562</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.822911523816528</v>
@@ -33167,7 +32969,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.704697746834569</v>
+        <v>1.551821463135516</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.316777409763069</v>
@@ -33256,7 +33058,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.71113046745235</v>
+        <v>1.552269515398474</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.30338454907411</v>
@@ -33345,7 +33147,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.712906573710391</v>
+        <v>1.549405312089283</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.977236558338409</v>
@@ -33434,7 +33236,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.715726502080316</v>
+        <v>1.544165738554769</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.663334788481596</v>
@@ -33523,7 +33325,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.718335023716885</v>
+        <v>1.549183130085093</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.935303334074938</v>
@@ -33612,7 +33414,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.719933694578721</v>
+        <v>1.556205032069663</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.508045179624824</v>
@@ -33701,7 +33503,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.7301161855059</v>
+        <v>1.577034986050527</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.505631349721517</v>
@@ -33790,7 +33592,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.733691972911017</v>
+        <v>1.592116869027923</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.446511072118025</v>
@@ -33879,7 +33681,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.728501117541522</v>
+        <v>1.5993059795912</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.43593756452992</v>
@@ -33968,7 +33770,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.733916444345314</v>
+        <v>1.59897963031385</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.855845765415483</v>
@@ -34057,7 +33859,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.730279818668121</v>
+        <v>1.602458824483659</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>4.064975636669232</v>
@@ -34146,7 +33948,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.732107159103955</v>
+        <v>1.601114798595886</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.692524074408796</v>
@@ -34235,7 +34037,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.7339044642384</v>
+        <v>1.600912134701155</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.548223023525587</v>
@@ -34324,7 +34126,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.735429464798242</v>
+        <v>1.605966280419227</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>4.21665982259446</v>
@@ -34610,7 +34412,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.610984353295479</v>
+        <v>1.56815856544713</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.151683462588193</v>
@@ -34699,7 +34501,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.619771024744547</v>
+        <v>1.570554569675819</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.819366971915533</v>
@@ -34788,7 +34590,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.617425224735584</v>
+        <v>1.571614632254515</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.032233000521424</v>
@@ -34877,7 +34679,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.619641508864924</v>
+        <v>1.563319245664517</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.352766631737473</v>
@@ -34966,7 +34768,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.617589736938523</v>
+        <v>1.558129574584129</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.070237633531032</v>
@@ -35055,7 +34857,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.615778778426542</v>
+        <v>1.55864903677692</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.87319357867774</v>
@@ -35144,7 +34946,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.614698008211378</v>
+        <v>1.557504907153562</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.78836570597929</v>
@@ -35233,7 +35035,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.607578209253873</v>
+        <v>1.556983546817679</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.069122275542532</v>
@@ -35322,7 +35124,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.620352627918378</v>
+        <v>1.571297642627216</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.609494281073816</v>
@@ -35411,7 +35213,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.607746788526947</v>
+        <v>1.558217661403745</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.984239979254207</v>
@@ -35500,7 +35302,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.588794658903549</v>
+        <v>1.543317336535353</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.90066856229994</v>
@@ -35589,7 +35391,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.575235449820256</v>
+        <v>1.533103636432844</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.852138572644115</v>
@@ -35678,7 +35480,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.574157744208545</v>
+        <v>1.536903360571636</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.888825765473777</v>
@@ -35767,7 +35569,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.574733953442177</v>
+        <v>1.524201530302358</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.868707097916755</v>
@@ -35856,7 +35658,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.571586368649021</v>
+        <v>1.512358562688091</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.870034526262171</v>
@@ -35945,7 +35747,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.57189498156816</v>
+        <v>1.509419791809975</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.583192648323141</v>
@@ -36034,7 +35836,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.567079134642102</v>
+        <v>1.502104178430408</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.714938466975861</v>
@@ -36123,7 +35925,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.557168133963609</v>
+        <v>1.495945078386031</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.836921296985272</v>
@@ -36212,7 +36014,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.556157788603878</v>
+        <v>1.495558188519118</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.832924866394119</v>
@@ -36301,7 +36103,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.529882434634408</v>
+        <v>1.476387994478062</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.371271340421392</v>
@@ -36390,7 +36192,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.516525612737195</v>
+        <v>1.464897530577636</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.398701560158109</v>
@@ -36479,7 +36281,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.513409148210231</v>
+        <v>1.46539596112484</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.325957257712949</v>
@@ -36568,7 +36370,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.522514010455826</v>
+        <v>1.468763321870782</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.462641409846303</v>
@@ -36657,7 +36459,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.520706796212653</v>
+        <v>1.465510816130406</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.366026133895764</v>
@@ -36746,7 +36548,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.530569014654501</v>
+        <v>1.471479578161423</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.411092616532833</v>
@@ -36835,7 +36637,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.552157768375864</v>
+        <v>1.48447220628287</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.335191233326026</v>
@@ -36924,7 +36726,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.564735827844987</v>
+        <v>1.485788740646736</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.326091776806785</v>
@@ -37013,7 +36815,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.571060230618488</v>
+        <v>1.487401411949572</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.309734622860148</v>
@@ -37102,7 +36904,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.583504374525977</v>
+        <v>1.499955025427368</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.365279409370324</v>
@@ -37191,7 +36993,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.592609899005836</v>
+        <v>1.512259286051359</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.314313827985802</v>
@@ -37280,7 +37082,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.587231480211381</v>
+        <v>1.512344043742172</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.288324839723153</v>
@@ -37369,7 +37171,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.597132123668062</v>
+        <v>1.526154907652712</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.381554930198391</v>
@@ -37458,7 +37260,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.604772091838273</v>
+        <v>1.532946263703667</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.301549599999413</v>
@@ -37547,7 +37349,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.613777817604015</v>
+        <v>1.544716105980524</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.344439110591927</v>
@@ -37636,7 +37438,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.650013626732902</v>
+        <v>1.571809656157122</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.967800288911759</v>
@@ -37725,7 +37527,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.679285685463626</v>
+        <v>1.586244545647643</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.043225079548138</v>
@@ -37814,7 +37616,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.694385027771272</v>
+        <v>1.589780219725034</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.072839375565256</v>
@@ -37903,7 +37705,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.701937130050686</v>
+        <v>1.59574617074416</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.845968367213914</v>
@@ -37992,7 +37794,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.706685830053308</v>
+        <v>1.592691824945014</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.091295429321775</v>
@@ -38081,7 +37883,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.704267956081224</v>
+        <v>1.592586422158695</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.531443375777411</v>
@@ -38170,7 +37972,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.707168566712322</v>
+        <v>1.590348436684962</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.08817747127965</v>
@@ -38259,7 +38061,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.708811509738372</v>
+        <v>1.601363874842746</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.364376170100351</v>
@@ -38348,7 +38150,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.713166292158072</v>
+        <v>1.601397584015045</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.31204136011772</v>
@@ -38437,7 +38239,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.713244118627858</v>
+        <v>1.60217816642866</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.231928576898014</v>
@@ -38526,7 +38328,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.693918709740282</v>
+        <v>1.587290676242754</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.314034102272266</v>
@@ -38615,7 +38417,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.684066717254247</v>
+        <v>1.587719915745528</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.033526188376693</v>
@@ -38704,7 +38506,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.65382933557829</v>
+        <v>1.563432592778235</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.820099089029758</v>
@@ -38793,7 +38595,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.645888402011459</v>
+        <v>1.561000131282358</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.855455476628172</v>
@@ -38882,7 +38684,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.640032863901365</v>
+        <v>1.562671713371248</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.755059110253722</v>
@@ -38971,7 +38773,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.630266703675365</v>
+        <v>1.555775769417605</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.827075573878692</v>
@@ -39060,7 +38862,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.63167867442749</v>
+        <v>1.56152050738643</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.474532672562112</v>
@@ -39149,7 +38951,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.610270439039118</v>
+        <v>1.545847629161586</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.879815113939377</v>
@@ -39238,7 +39040,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.610188287669931</v>
+        <v>1.542525023072406</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.862812556658119</v>
@@ -39327,7 +39129,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.611999238499069</v>
+        <v>1.545550297335072</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.878463988518178</v>
@@ -39416,7 +39218,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.616237521040113</v>
+        <v>1.54703340681869</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.842657817418985</v>
@@ -39505,7 +39307,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.621989492292039</v>
+        <v>1.556076887114464</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.764798144419736</v>
@@ -39594,7 +39396,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.621296799625142</v>
+        <v>1.548620413055744</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.951173623359791</v>
@@ -39683,7 +39485,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.619561828804371</v>
+        <v>1.553892153763185</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.946987059554995</v>
@@ -39772,7 +39574,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.61923782824119</v>
+        <v>1.554431045225491</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.887866955657987</v>
@@ -39861,7 +39663,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.635909005006407</v>
+        <v>1.572566288222529</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.65884019001502</v>
@@ -39950,7 +39752,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.640426321444612</v>
+        <v>1.571340841373462</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.828733444907627</v>
@@ -40039,7 +39841,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.677540362660323</v>
+        <v>1.597186621159655</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.556053581012641</v>
@@ -40128,7 +39930,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.67856043903578</v>
+        <v>1.588127700232413</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.009742092683251</v>
@@ -40217,7 +40019,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.694733646363743</v>
+        <v>1.602109414981502</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.871458053860958</v>
@@ -40306,7 +40108,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.697925332107055</v>
+        <v>1.602958025203201</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.961467796527343</v>
@@ -40395,7 +40197,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.701884269711571</v>
+        <v>1.608899995740881</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.308136741311606</v>
@@ -40484,7 +40286,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.726267939545346</v>
+        <v>1.633272932288399</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.889584191888332</v>
@@ -40573,7 +40375,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.736106675540608</v>
+        <v>1.650906575262423</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.838126055527723</v>
@@ -40662,7 +40464,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.729734078333951</v>
+        <v>1.655905038241084</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.706593565216014</v>
@@ -40751,7 +40553,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.724320614501944</v>
+        <v>1.656621851858971</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.304272818720337</v>
@@ -40840,7 +40642,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.719904896869741</v>
+        <v>1.655637804455654</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.657221637819584</v>
@@ -40929,7 +40731,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.722999746949249</v>
+        <v>1.662685828674736</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.791854734377841</v>
@@ -41018,7 +40820,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.723188576175051</v>
+        <v>1.666380624149554</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.625734829146973</v>
@@ -41107,7 +40909,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.713048199248273</v>
+        <v>1.6628552631184</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.151823975141136</v>
@@ -41196,7 +40998,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.716632770382668</v>
+        <v>1.658309538935681</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.325141702753693</v>
@@ -41285,7 +41087,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.718656318034487</v>
+        <v>1.662394758352308</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.618981686918127</v>
@@ -41571,7 +41373,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.526073043656417</v>
+        <v>1.442589403186915</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.772378742291247</v>
@@ -41660,7 +41462,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.538398161587691</v>
+        <v>1.449147284131057</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.519371466134985</v>
@@ -41749,7 +41551,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.532852871714826</v>
+        <v>1.451850569184577</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.80895030733518</v>
@@ -41838,7 +41640,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.537755356862622</v>
+        <v>1.442513628074734</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.853411685971843</v>
@@ -41927,7 +41729,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.535348158880316</v>
+        <v>1.437915424366805</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.837460145924811</v>
@@ -42016,7 +41818,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.540452826780879</v>
+        <v>1.437113113625144</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.64254026645721</v>
@@ -42105,7 +41907,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.541323485906977</v>
+        <v>1.444132317436146</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.75721187254328</v>
@@ -42194,7 +41996,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.538311996519831</v>
+        <v>1.44462949322352</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.827249867290363</v>
@@ -42283,7 +42085,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.545672895161734</v>
+        <v>1.447236069866689</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.48460576649666</v>
@@ -42372,7 +42174,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.530012755185973</v>
+        <v>1.435517487060166</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.695125180037786</v>
@@ -42461,7 +42263,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.506660049356358</v>
+        <v>1.417738693648764</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.631589142535168</v>
@@ -42550,7 +42352,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.492994353451823</v>
+        <v>1.415143966932931</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.625977891201233</v>
@@ -42639,7 +42441,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.499446597669706</v>
+        <v>1.419445027918922</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.595567887273929</v>
@@ -42728,7 +42530,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.501658786972592</v>
+        <v>1.415966204412974</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.606614444942995</v>
@@ -42817,7 +42619,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.516249960228403</v>
+        <v>1.420733567070984</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.597365314935151</v>
@@ -42906,7 +42708,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.512563374035311</v>
+        <v>1.414784193190211</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.503457797805293</v>
@@ -42995,7 +42797,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.517008371523874</v>
+        <v>1.41115513329542</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.424245134200373</v>
@@ -43084,7 +42886,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.51266851760949</v>
+        <v>1.40956706586343</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.574661458093121</v>
@@ -43173,7 +42975,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.510970159520917</v>
+        <v>1.409442274858379</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.684316941384533</v>
@@ -43262,7 +43064,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.498437213290265</v>
+        <v>1.403492472122113</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.729331400479318</v>
@@ -43351,7 +43153,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.493898252303622</v>
+        <v>1.403691531426223</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.647968902096137</v>
@@ -43440,7 +43242,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.493138168901293</v>
+        <v>1.406305998898689</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.651826914509682</v>
@@ -43529,7 +43331,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.503003414567824</v>
+        <v>1.406846264742445</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.612927384049653</v>
@@ -43618,7 +43420,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.504047250152472</v>
+        <v>1.408953307517753</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.655663777306934</v>
@@ -43707,7 +43509,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.512947083330544</v>
+        <v>1.413251099870118</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.73719595509873</v>
@@ -43796,7 +43598,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.544414939362121</v>
+        <v>1.425754216170495</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.714796142690998</v>
@@ -43885,7 +43687,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.569852160392726</v>
+        <v>1.427532671538748</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.898787522492176</v>
@@ -43974,7 +43776,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.573779613559278</v>
+        <v>1.431417171692822</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.9801147637742</v>
@@ -44063,7 +43865,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.588544001815073</v>
+        <v>1.441329576716398</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.723585419103794</v>
@@ -44152,7 +43954,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.585862472389139</v>
+        <v>1.43975930143423</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.864059259402441</v>
@@ -44241,7 +44043,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.581446023119083</v>
+        <v>1.439600070088389</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.894065524307881</v>
@@ -44330,7 +44132,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.593911294255741</v>
+        <v>1.454304253202471</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.933896003348571</v>
@@ -44419,7 +44221,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.598844924145226</v>
+        <v>1.460128345334883</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.681675095104367</v>
@@ -44508,7 +44310,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.606332258460883</v>
+        <v>1.470771172930071</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.976846077551929</v>
@@ -44597,7 +44399,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.628136790508875</v>
+        <v>1.486818807772242</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.938396717159781</v>
@@ -44686,7 +44488,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.647128676632681</v>
+        <v>1.487101553175671</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.044918557458468</v>
@@ -44775,7 +44577,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.657616150683773</v>
+        <v>1.488414319129525</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.186796354741662</v>
@@ -44864,7 +44666,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.658045405620357</v>
+        <v>1.488027675185673</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.856307785827836</v>
@@ -44953,7 +44755,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.659914377480894</v>
+        <v>1.484349835663846</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.050708713457658</v>
@@ -45042,7 +44844,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.656304435083803</v>
+        <v>1.476184796681181</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.431709362410075</v>
@@ -45131,7 +44933,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.661161375864832</v>
+        <v>1.485538546362867</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.17887941949292</v>
@@ -45220,7 +45022,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.658819243748148</v>
+        <v>1.495401118493461</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.501187722599628</v>
@@ -45309,7 +45111,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.663471988114257</v>
+        <v>1.497146275457282</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.110297282363583</v>
@@ -45398,7 +45200,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.668882616719689</v>
+        <v>1.50939217791641</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.219945163958973</v>
@@ -45487,7 +45289,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.663143580994104</v>
+        <v>1.503112550566261</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.177917085782954</v>
@@ -45576,7 +45378,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.64808017175087</v>
+        <v>1.499452852378223</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.998099673758431</v>
@@ -45665,7 +45467,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.64450882933477</v>
+        <v>1.50376107332566</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.338661924251263</v>
@@ -45754,7 +45556,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.642926861033694</v>
+        <v>1.505712127737159</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.410047536483797</v>
@@ -45843,7 +45645,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.65121050682222</v>
+        <v>1.51590076668354</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.273880750053492</v>
@@ -45932,7 +45734,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.638956367760966</v>
+        <v>1.50542802919694</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.256934418125487</v>
@@ -46021,7 +45823,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.635982072900879</v>
+        <v>1.515784409316735</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.61175260051973</v>
@@ -46110,7 +45912,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.619258767878168</v>
+        <v>1.501572044722476</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.230251626889368</v>
@@ -46199,7 +46001,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.624698487662064</v>
+        <v>1.495127282358822</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.413907951277658</v>
@@ -46288,7 +46090,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.62572237397234</v>
+        <v>1.500860836644953</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.351573484925331</v>
@@ -46377,7 +46179,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.630269097321815</v>
+        <v>1.502680722822007</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.135062156619663</v>
@@ -46466,7 +46268,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.629262122282588</v>
+        <v>1.501333811455574</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.39350560121674</v>
@@ -46555,7 +46357,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.632748193786151</v>
+        <v>1.494213809832275</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.346371601578567</v>
@@ -46644,7 +46446,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.62708833950293</v>
+        <v>1.48960839512434</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.116136432883222</v>
@@ -46733,7 +46535,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.621882258024386</v>
+        <v>1.488304080939402</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.01732306365334</v>
@@ -46822,7 +46624,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.63701913194001</v>
+        <v>1.498536829097763</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.187705092198423</v>
@@ -46911,7 +46713,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.652667053651407</v>
+        <v>1.510342761799206</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.926354443475194</v>
@@ -47000,7 +46802,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.656877503701538</v>
+        <v>1.511704272732981</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.310475090053834</v>
@@ -47089,7 +46891,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.643806795644967</v>
+        <v>1.493679315509855</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.273128680586203</v>
@@ -47178,7 +46980,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.645162722955972</v>
+        <v>1.493141402036292</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.077537869534423</v>
@@ -47267,7 +47069,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.642061242652897</v>
+        <v>1.485178208240915</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.861545944486841</v>
@@ -47356,7 +47158,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.646113812744608</v>
+        <v>1.489852282291904</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.455494776859888</v>
@@ -47445,7 +47247,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.6654191217237</v>
+        <v>1.511137272234352</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.272038986976376</v>
@@ -47534,7 +47336,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.667839773126202</v>
+        <v>1.528819315628201</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.381918164473293</v>
@@ -47623,7 +47425,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.669174929363639</v>
+        <v>1.538453849493576</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.557873814318885</v>
@@ -47712,7 +47514,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.670441439170661</v>
+        <v>1.544420239562721</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.117908254679469</v>
@@ -47801,7 +47603,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.670060642984359</v>
+        <v>1.548261979527312</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.811300728003664</v>
@@ -47890,7 +47692,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.674248398718552</v>
+        <v>1.560300606779551</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.500454746808172</v>
@@ -47979,7 +47781,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.671978533223851</v>
+        <v>1.56422214940684</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.902891174537293</v>
@@ -48068,7 +47870,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.676178328805576</v>
+        <v>1.564762275202927</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.961398226895386</v>
@@ -48157,7 +47959,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.674099182440523</v>
+        <v>1.560032165144104</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.215753132148366</v>
@@ -48246,7 +48048,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.675902708872294</v>
+        <v>1.559085089461856</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.393824732522744</v>
